--- a/Assignments/Assignment-2/DSBA 6156 - Assignment 2-2-Calculations.xlsx
+++ b/Assignments/Assignment-2/DSBA 6156 - Assignment 2-2-Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrul\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakebrulato/Documents/GitHub/6156-Machine_Learning/Assignments/Assignment-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BF2549-C39B-4739-A447-49EB26EF6035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08263786-C651-5848-A655-204BC185A0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCDE7E27-1DB4-4DDC-BDB7-47C58A7792DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23100" windowHeight="18940" xr2:uid="{CCDE7E27-1DB4-4DDC-BDB7-47C58A7792DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>OxyCon</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>HeartRate</t>
+  </si>
+  <si>
+    <t>Prediciton</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Squared Error</t>
+  </si>
+  <si>
+    <t>Sum of Squared Errors:</t>
+  </si>
+  <si>
+    <t>Learning Rate:</t>
+  </si>
+  <si>
+    <t>(D, W[0])</t>
+  </si>
+  <si>
+    <t>(D, W[1])</t>
+  </si>
+  <si>
+    <t>(D, W[2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Weights: </t>
   </si>
 </sst>
 </file>
@@ -468,18 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7072675B-E82F-4042-B638-6CD88414FFD5}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,7 +573,7 @@
         <v>4.1231056256176606</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -551,19 +590,19 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">SQRT((B3- $B$13)^2 + (C3 - $C$13)^2 + (D3 - $D$13)^2)</f>
+        <f>SQRT((B3- $B$13)^2 + (C3 - $C$13)^2 + (D3 - $D$13)^2)</f>
         <v>13.379088160259652</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="1">SQRT((B3- $B$14)^2 + (C3 - $C$14)^2 + (D3 - $D$14)^2)</f>
+        <f t="shared" ref="I3:I7" si="0">SQRT((B3- $B$14)^2 + (C3 - $C$14)^2 + (D3 - $D$14)^2)</f>
         <v>12.083045973594572</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="2">SQRT((B3- $B$15)^2 + (C3 - $C$15)^2 + (D3 - $D$15)^2)</f>
+        <f t="shared" ref="J3:J7" si="1">SQRT((B3- $B$15)^2 + (C3 - $C$15)^2 + (D3 - $D$15)^2)</f>
         <v>8.6602540378443873</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -580,19 +619,19 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>SQRT((B4- $B$13)^2 + (C4 - $C$13)^2 + (D4 - $D$13)^2)</f>
         <v>5.4772255750516612</v>
       </c>
       <c r="I4">
+        <f>SQRT((B4- $B$14)^2 + (C4 - $C$14)^2 + (D4 - $D$14)^2)</f>
+        <v>16.15549442140351</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="1"/>
-        <v>16.15549442140351</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="2"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,19 +648,19 @@
         <v>5</v>
       </c>
       <c r="H5" s="2">
+        <f>SQRT((B5- $B$13)^2 + (C5 - $C$13)^2 + (D5 - $D$13)^2)</f>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>3.3166247903553998</v>
-      </c>
-      <c r="I5">
+        <v>18.055470085267789</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>18.055470085267789</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -638,19 +677,19 @@
         <v>6</v>
       </c>
       <c r="H6">
+        <f t="shared" ref="H3:H7" si="2">SQRT((B6- $B$13)^2 + (C6 - $C$13)^2 + (D6 - $D$13)^2)</f>
+        <v>16.401219466856727</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>16.401219466856727</v>
-      </c>
-      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
         <v>11.532562594670797</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -667,19 +706,19 @@
         <v>6</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>22.293496809607955</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>22.293496809607955</v>
-      </c>
-      <c r="I7" s="2">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
         <v>18.788294228055936</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -696,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -713,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -730,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -745,6 +784,541 @@
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>37.99</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>138</v>
+      </c>
+      <c r="E25">
+        <f>-59.5 + (-0.15*C25) + (0.6 *D25)</f>
+        <v>17.149999999999991</v>
+      </c>
+      <c r="F25">
+        <f>B25-E25</f>
+        <v>20.840000000000011</v>
+      </c>
+      <c r="G25">
+        <f>(F25)^2</f>
+        <v>434.30560000000042</v>
+      </c>
+      <c r="H25">
+        <f>F25</f>
+        <v>20.840000000000011</v>
+      </c>
+      <c r="I25">
+        <f>F25*C25</f>
+        <v>854.4400000000004</v>
+      </c>
+      <c r="J25">
+        <f>F25*D25</f>
+        <v>2875.9200000000014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>47.34</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>153</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E36" si="3">-59.5 + (-0.15*C26) + (0.6 *D26)</f>
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:H36" si="4">B26-E26</f>
+        <v>21.340000000000003</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G36" si="5">(F26)^2</f>
+        <v>455.39560000000017</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H36" si="6">F26</f>
+        <v>21.340000000000003</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I36" si="7">F26*C26</f>
+        <v>896.2800000000002</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J37" si="8">F26*D26</f>
+        <v>3265.0200000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>44.38</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>151</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>25.549999999999997</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>18.830000000000005</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>354.56890000000021</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>18.830000000000005</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>696.71000000000015</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>2843.3300000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>28.17</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>133</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>13.399999999999991</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>14.77000000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>218.1529000000003</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>14.77000000000001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>679.42000000000053</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>1964.4100000000014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>27.07</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>126</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>8.8999999999999915</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>18.170000000000009</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>330.14890000000031</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>18.170000000000009</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>872.16000000000042</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>2289.420000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>37.85</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>145</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>20.900000000000006</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>16.949999999999996</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>287.30249999999984</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>16.949999999999996</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>745.79999999999984</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>2457.7499999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>44.72</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>158</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>28.849999999999994</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>15.870000000000005</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>251.85690000000014</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>15.870000000000005</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>682.4100000000002</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>2507.4600000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>36.42</v>
+      </c>
+      <c r="C32">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>143</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>19.399999999999991</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>17.02000000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>289.68040000000036</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>17.02000000000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>782.92000000000053</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>2433.8600000000015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>31.21</v>
+      </c>
+      <c r="C33">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>138</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>17.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>13.46</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>181.17160000000001</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>13.46</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>498.02000000000004</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>1857.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>54.85</v>
+      </c>
+      <c r="C34">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>158</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>29.599999999999994</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>25.250000000000007</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>637.56250000000034</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>25.250000000000007</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>959.50000000000023</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>3989.5000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>143</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>19.849999999999994</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>19.990000000000009</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>399.60010000000034</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>19.990000000000009</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>859.57000000000039</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>2858.5700000000015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>30.83</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>138</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>16.849999999999994</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>13.980000000000004</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>195.44040000000012</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>13.980000000000004</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>601.14000000000021</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>1929.2400000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="2">
+        <f>SUM(G25:G36)</f>
+        <v>4035.1863000000026</v>
+      </c>
+      <c r="H37" s="2">
+        <f>SUM(H25:H36)</f>
+        <v>216.47000000000008</v>
+      </c>
+      <c r="I37" s="2">
+        <f>SUM(I25:I36)</f>
+        <v>9128.3700000000008</v>
+      </c>
+      <c r="J37" s="2">
+        <f>SUM(J25:J36)</f>
+        <v>31271.96000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <f>-59.5-(D39*H37)</f>
+        <v>-59.500432940000003</v>
+      </c>
+      <c r="I40" s="2">
+        <f>-0.15 + (D39*I37)</f>
+        <v>-0.13174326</v>
+      </c>
+      <c r="J40" s="2">
+        <f>0.6+(D39*J37)</f>
+        <v>0.66254391999999995</v>
       </c>
     </row>
   </sheetData>
